--- a/PropProAssistant/Models/LicitaNet/LN_02.xlsx
+++ b/PropProAssistant/Models/LicitaNet/LN_02.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Documents\Pregoes_Eletr\DM\Cadastrar\PE_172023_Carmo-Do-Paranaiba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DotNETProjects\proppro-assistant\PropProAssistant\Models\LicitaNet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22E832E-DFC4-4F85-859E-879597B44206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56206856-F69C-4DF2-BA2B-88F9E9FF3F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="999999"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -990,19 +990,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="70" style="1" customWidth="1"/>
-    <col min="7" max="9" width="30" customWidth="1"/>
+    <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1024,10 +1024,8 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1043,10 +1041,8 @@
       <c r="G2" s="2">
         <v>0</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1068,10 +1064,8 @@
       <c r="G3" s="2">
         <v>3.77</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1087,10 +1081,8 @@
       <c r="G4" s="2">
         <v>0</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1106,10 +1098,8 @@
       <c r="G5" s="2">
         <v>0</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1125,10 +1115,8 @@
       <c r="G6" s="2">
         <v>0</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1150,10 +1138,8 @@
       <c r="G7" s="2">
         <v>9.75</v>
       </c>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1175,10 +1161,8 @@
       <c r="G8" s="2">
         <v>9.75</v>
       </c>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1200,10 +1184,8 @@
       <c r="G9" s="2">
         <v>9.75</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1225,10 +1207,8 @@
       <c r="G10" s="2">
         <v>10.27</v>
       </c>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1250,10 +1230,8 @@
       <c r="G11" s="2">
         <v>9.75</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1275,10 +1253,8 @@
       <c r="G12" s="2">
         <v>11.57</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1294,10 +1270,8 @@
       <c r="G13" s="2">
         <v>0</v>
       </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1313,10 +1287,8 @@
       <c r="G14" s="2">
         <v>0</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1338,10 +1310,8 @@
       <c r="G15" s="2">
         <v>0.6</v>
       </c>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1363,10 +1333,8 @@
       <c r="G16" s="2">
         <v>23.27</v>
       </c>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1382,10 +1350,8 @@
       <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1401,10 +1367,8 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1426,10 +1390,8 @@
       <c r="G19" s="2">
         <v>13.65</v>
       </c>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1451,10 +1413,8 @@
       <c r="G20" s="2">
         <v>74.41</v>
       </c>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1476,10 +1436,8 @@
       <c r="G21" s="2">
         <v>8.24</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1501,10 +1459,8 @@
       <c r="G22" s="2">
         <v>27.17</v>
       </c>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1526,10 +1482,8 @@
       <c r="G23" s="2">
         <v>29.9</v>
       </c>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1551,10 +1505,8 @@
       <c r="G24" s="2">
         <v>33.799999999999997</v>
       </c>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1576,10 +1528,8 @@
       <c r="G25" s="2">
         <v>38.869999999999997</v>
       </c>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1601,10 +1551,8 @@
       <c r="G26" s="2">
         <v>45.5</v>
       </c>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1626,10 +1574,8 @@
       <c r="G27" s="2">
         <v>57.85</v>
       </c>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1645,10 +1591,8 @@
       <c r="G28" s="2">
         <v>0</v>
       </c>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1670,10 +1614,8 @@
       <c r="G29" s="2">
         <v>89.7</v>
       </c>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1695,10 +1637,8 @@
       <c r="G30" s="2">
         <v>15.47</v>
       </c>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1714,10 +1654,8 @@
       <c r="G31" s="2">
         <v>0</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1733,10 +1671,8 @@
       <c r="G32" s="2">
         <v>0</v>
       </c>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1752,10 +1688,8 @@
       <c r="G33" s="2">
         <v>0</v>
       </c>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1771,10 +1705,8 @@
       <c r="G34" s="2">
         <v>0</v>
       </c>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1790,10 +1722,8 @@
       <c r="G35" s="2">
         <v>0</v>
       </c>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1809,10 +1739,8 @@
       <c r="G36" s="2">
         <v>0</v>
       </c>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1828,10 +1756,8 @@
       <c r="G37" s="2">
         <v>0</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1847,10 +1773,8 @@
       <c r="G38" s="2">
         <v>0</v>
       </c>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1866,10 +1790,8 @@
       <c r="G39" s="2">
         <v>0</v>
       </c>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1891,10 +1813,8 @@
       <c r="G40" s="2">
         <v>1.07</v>
       </c>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1910,10 +1830,8 @@
       <c r="G41" s="2">
         <v>0</v>
       </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1929,10 +1847,8 @@
       <c r="G42" s="2">
         <v>0</v>
       </c>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1954,10 +1870,8 @@
       <c r="G43" s="2">
         <v>6.37</v>
       </c>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1973,10 +1887,8 @@
       <c r="G44" s="2">
         <v>0</v>
       </c>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1992,10 +1904,8 @@
       <c r="G45" s="2">
         <v>0</v>
       </c>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2017,10 +1927,8 @@
       <c r="G46" s="2">
         <v>31.2</v>
       </c>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2036,10 +1944,8 @@
       <c r="G47" s="2">
         <v>0</v>
       </c>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2061,10 +1967,8 @@
       <c r="G48" s="2">
         <v>107.9</v>
       </c>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2080,10 +1984,8 @@
       <c r="G49" s="2">
         <v>0</v>
       </c>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2099,10 +2001,8 @@
       <c r="G50" s="2">
         <v>0</v>
       </c>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2124,10 +2024,8 @@
       <c r="G51" s="2">
         <v>37.700000000000003</v>
       </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2143,10 +2041,8 @@
       <c r="G52" s="2">
         <v>0</v>
       </c>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2162,10 +2058,8 @@
       <c r="G53" s="2">
         <v>0</v>
       </c>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2187,10 +2081,8 @@
       <c r="G54" s="2">
         <v>3.12</v>
       </c>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2212,10 +2104,8 @@
       <c r="G55" s="2">
         <v>1.24</v>
       </c>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2231,10 +2121,8 @@
       <c r="G56" s="2">
         <v>0</v>
       </c>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2250,10 +2138,8 @@
       <c r="G57" s="2">
         <v>0</v>
       </c>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2269,10 +2155,8 @@
       <c r="G58" s="2">
         <v>0</v>
       </c>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2288,10 +2172,8 @@
       <c r="G59" s="2">
         <v>0</v>
       </c>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2307,10 +2189,8 @@
       <c r="G60" s="2">
         <v>0</v>
       </c>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2326,10 +2206,8 @@
       <c r="G61" s="2">
         <v>0</v>
       </c>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2345,10 +2223,8 @@
       <c r="G62" s="2">
         <v>0</v>
       </c>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2364,10 +2240,8 @@
       <c r="G63" s="2">
         <v>0</v>
       </c>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2389,10 +2263,8 @@
       <c r="G64" s="2">
         <v>18.07</v>
       </c>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2408,10 +2280,8 @@
       <c r="G65" s="2">
         <v>0</v>
       </c>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2427,10 +2297,8 @@
       <c r="G66" s="2">
         <v>0</v>
       </c>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2446,10 +2314,8 @@
       <c r="G67" s="2">
         <v>0</v>
       </c>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2465,10 +2331,8 @@
       <c r="G68" s="2">
         <v>0</v>
       </c>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2484,10 +2348,8 @@
       <c r="G69" s="2">
         <v>0</v>
       </c>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2509,10 +2371,8 @@
       <c r="G70" s="2">
         <v>7.07</v>
       </c>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2528,10 +2388,8 @@
       <c r="G71" s="2">
         <v>0</v>
       </c>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2547,10 +2405,8 @@
       <c r="G72" s="2">
         <v>0</v>
       </c>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2566,10 +2422,8 @@
       <c r="G73" s="2">
         <v>0</v>
       </c>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2585,10 +2439,8 @@
       <c r="G74" s="2">
         <v>0</v>
       </c>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2604,10 +2456,8 @@
       <c r="G75" s="2">
         <v>0</v>
       </c>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2623,10 +2473,8 @@
       <c r="G76" s="2">
         <v>0</v>
       </c>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2642,10 +2490,8 @@
       <c r="G77" s="2">
         <v>0</v>
       </c>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2661,10 +2507,8 @@
       <c r="G78" s="2">
         <v>0</v>
       </c>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2680,10 +2524,8 @@
       <c r="G79" s="2">
         <v>0</v>
       </c>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2699,10 +2541,8 @@
       <c r="G80" s="2">
         <v>0</v>
       </c>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2718,10 +2558,8 @@
       <c r="G81" s="2">
         <v>0</v>
       </c>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2737,10 +2575,8 @@
       <c r="G82" s="2">
         <v>0</v>
       </c>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2756,10 +2592,8 @@
       <c r="G83" s="2">
         <v>0</v>
       </c>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2781,10 +2615,8 @@
       <c r="G84" s="2">
         <v>6.37</v>
       </c>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2800,10 +2632,8 @@
       <c r="G85" s="2">
         <v>0</v>
       </c>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2819,10 +2649,8 @@
       <c r="G86" s="2">
         <v>0</v>
       </c>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2838,10 +2666,8 @@
       <c r="G87" s="2">
         <v>0</v>
       </c>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2863,10 +2689,8 @@
       <c r="G88" s="2">
         <v>4.03</v>
       </c>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2882,10 +2706,8 @@
       <c r="G89" s="2">
         <v>0</v>
       </c>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2901,10 +2723,8 @@
       <c r="G90" s="2">
         <v>0</v>
       </c>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2920,10 +2740,8 @@
       <c r="G91" s="2">
         <v>0</v>
       </c>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2939,10 +2757,8 @@
       <c r="G92" s="2">
         <v>0</v>
       </c>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2958,10 +2774,8 @@
       <c r="G93" s="2">
         <v>0</v>
       </c>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2977,10 +2791,8 @@
       <c r="G94" s="2">
         <v>0</v>
       </c>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2996,10 +2808,8 @@
       <c r="G95" s="2">
         <v>0</v>
       </c>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3015,10 +2825,8 @@
       <c r="G96" s="2">
         <v>0</v>
       </c>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3034,10 +2842,8 @@
       <c r="G97" s="2">
         <v>0</v>
       </c>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3053,10 +2859,8 @@
       <c r="G98" s="2">
         <v>0</v>
       </c>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3072,10 +2876,8 @@
       <c r="G99" s="2">
         <v>0</v>
       </c>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3091,10 +2893,8 @@
       <c r="G100" s="2">
         <v>0</v>
       </c>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3110,10 +2910,8 @@
       <c r="G101" s="2">
         <v>0</v>
       </c>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3135,10 +2933,8 @@
       <c r="G102" s="2">
         <v>2.38</v>
       </c>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3160,10 +2956,8 @@
       <c r="G103" s="2">
         <v>4.76</v>
       </c>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3185,10 +2979,8 @@
       <c r="G104" s="2">
         <v>1.95</v>
       </c>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3210,10 +3002,8 @@
       <c r="G105" s="2">
         <v>1.95</v>
       </c>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:7" ht="150" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3235,10 +3025,8 @@
       <c r="G106" s="2">
         <v>1.95</v>
       </c>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3260,10 +3048,8 @@
       <c r="G107" s="2">
         <v>1.95</v>
       </c>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3285,10 +3071,8 @@
       <c r="G108" s="2">
         <v>1.95</v>
       </c>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3310,10 +3094,8 @@
       <c r="G109" s="2">
         <v>22.1</v>
       </c>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-    </row>
-    <row r="110" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3335,10 +3117,8 @@
       <c r="G110" s="2">
         <v>22.1</v>
       </c>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-    </row>
-    <row r="111" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3360,10 +3140,8 @@
       <c r="G111" s="2">
         <v>22.1</v>
       </c>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-    </row>
-    <row r="112" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3385,10 +3163,8 @@
       <c r="G112" s="2">
         <v>22.1</v>
       </c>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-    </row>
-    <row r="113" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3410,10 +3186,8 @@
       <c r="G113" s="2">
         <v>18.2</v>
       </c>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-    </row>
-    <row r="114" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3429,10 +3203,8 @@
       <c r="G114" s="2">
         <v>0</v>
       </c>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-    </row>
-    <row r="115" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3454,10 +3226,8 @@
       <c r="G115" s="2">
         <v>7.54</v>
       </c>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-    </row>
-    <row r="116" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3473,10 +3243,8 @@
       <c r="G116" s="2">
         <v>0</v>
       </c>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3492,10 +3260,8 @@
       <c r="G117" s="2">
         <v>0</v>
       </c>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3517,10 +3283,8 @@
       <c r="G118" s="2">
         <v>23.4</v>
       </c>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3542,10 +3306,8 @@
       <c r="G119" s="2">
         <v>167.7</v>
       </c>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-    </row>
-    <row r="120" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3561,10 +3323,8 @@
       <c r="G120" s="2">
         <v>0</v>
       </c>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3580,10 +3340,8 @@
       <c r="G121" s="2">
         <v>0</v>
       </c>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3599,10 +3357,8 @@
       <c r="G122" s="2">
         <v>0</v>
       </c>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3618,10 +3374,8 @@
       <c r="G123" s="2">
         <v>0</v>
       </c>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3637,10 +3391,8 @@
       <c r="G124" s="2">
         <v>0</v>
       </c>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3656,10 +3408,8 @@
       <c r="G125" s="2">
         <v>0</v>
       </c>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3675,10 +3425,8 @@
       <c r="G126" s="2">
         <v>0</v>
       </c>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3694,10 +3442,8 @@
       <c r="G127" s="2">
         <v>0</v>
       </c>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3713,10 +3459,8 @@
       <c r="G128" s="2">
         <v>0</v>
       </c>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-    </row>
-    <row r="129" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3732,10 +3476,8 @@
       <c r="G129" s="2">
         <v>0</v>
       </c>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3751,10 +3493,8 @@
       <c r="G130" s="2">
         <v>0</v>
       </c>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3770,10 +3510,8 @@
       <c r="G131" s="2">
         <v>0</v>
       </c>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3789,10 +3527,8 @@
       <c r="G132" s="2">
         <v>0</v>
       </c>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3814,10 +3550,8 @@
       <c r="G133" s="2">
         <v>0.98</v>
       </c>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3839,10 +3573,8 @@
       <c r="G134" s="2">
         <v>0.98</v>
       </c>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2"/>
-    </row>
-    <row r="135" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3864,10 +3596,8 @@
       <c r="G135" s="2">
         <v>0.98</v>
       </c>
-      <c r="H135" s="2"/>
-      <c r="I135" s="2"/>
-    </row>
-    <row r="136" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3889,10 +3619,8 @@
       <c r="G136" s="2">
         <v>0.36</v>
       </c>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-    </row>
-    <row r="137" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3914,10 +3642,8 @@
       <c r="G137" s="2">
         <v>0.59</v>
       </c>
-      <c r="H137" s="2"/>
-      <c r="I137" s="2"/>
-    </row>
-    <row r="138" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -3939,10 +3665,8 @@
       <c r="G138" s="2">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H138" s="2"/>
-      <c r="I138" s="2"/>
-    </row>
-    <row r="139" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -3964,10 +3688,8 @@
       <c r="G139" s="2">
         <v>0.35</v>
       </c>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-    </row>
-    <row r="140" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:7" ht="195" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -3989,10 +3711,8 @@
       <c r="G140" s="2">
         <v>0.36</v>
       </c>
-      <c r="H140" s="2"/>
-      <c r="I140" s="2"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4008,10 +3728,8 @@
       <c r="G141" s="2">
         <v>0</v>
       </c>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4027,10 +3745,8 @@
       <c r="G142" s="2">
         <v>0</v>
       </c>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-    </row>
-    <row r="143" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4046,10 +3762,8 @@
       <c r="G143" s="2">
         <v>0</v>
       </c>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-    </row>
-    <row r="144" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4071,10 +3785,8 @@
       <c r="G144" s="2">
         <v>11.7</v>
       </c>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4090,10 +3802,8 @@
       <c r="G145" s="2">
         <v>0</v>
       </c>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4109,10 +3819,8 @@
       <c r="G146" s="2">
         <v>0</v>
       </c>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-    </row>
-    <row r="147" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4128,10 +3836,8 @@
       <c r="G147" s="2">
         <v>0</v>
       </c>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-    </row>
-    <row r="148" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4147,10 +3853,8 @@
       <c r="G148" s="2">
         <v>0</v>
       </c>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-    </row>
-    <row r="149" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:7" ht="165" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4166,10 +3870,8 @@
       <c r="G149" s="2">
         <v>0</v>
       </c>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4185,10 +3887,8 @@
       <c r="G150" s="2">
         <v>0</v>
       </c>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4204,10 +3904,8 @@
       <c r="G151" s="2">
         <v>0</v>
       </c>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4223,10 +3921,8 @@
       <c r="G152" s="2">
         <v>0</v>
       </c>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4242,10 +3938,8 @@
       <c r="G153" s="2">
         <v>0</v>
       </c>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4261,10 +3955,8 @@
       <c r="G154" s="2">
         <v>0</v>
       </c>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4280,10 +3972,8 @@
       <c r="G155" s="2">
         <v>0</v>
       </c>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-    </row>
-    <row r="156" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4299,10 +3989,8 @@
       <c r="G156" s="2">
         <v>0</v>
       </c>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-    </row>
-    <row r="157" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4318,10 +4006,8 @@
       <c r="G157" s="2">
         <v>0</v>
       </c>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-    </row>
-    <row r="158" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4343,10 +4029,8 @@
       <c r="G158" s="2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-    </row>
-    <row r="159" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4368,10 +4052,8 @@
       <c r="G159" s="2">
         <v>1.1599999999999999</v>
       </c>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-    </row>
-    <row r="160" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4393,10 +4075,8 @@
       <c r="G160" s="2">
         <v>1.24</v>
       </c>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-    </row>
-    <row r="161" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4412,10 +4092,8 @@
       <c r="G161" s="2">
         <v>0</v>
       </c>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-    </row>
-    <row r="162" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4431,10 +4109,8 @@
       <c r="G162" s="2">
         <v>0</v>
       </c>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4450,10 +4126,8 @@
       <c r="G163" s="2">
         <v>0</v>
       </c>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4469,10 +4143,8 @@
       <c r="G164" s="2">
         <v>0</v>
       </c>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-    </row>
-    <row r="165" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4488,10 +4160,8 @@
       <c r="G165" s="2">
         <v>0</v>
       </c>
-      <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
-    </row>
-    <row r="166" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4507,10 +4177,8 @@
       <c r="G166" s="2">
         <v>0</v>
       </c>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-    </row>
-    <row r="167" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4526,10 +4194,8 @@
       <c r="G167" s="2">
         <v>0</v>
       </c>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-    </row>
-    <row r="168" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4545,10 +4211,8 @@
       <c r="G168" s="2">
         <v>0</v>
       </c>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4570,10 +4234,8 @@
       <c r="G169" s="2">
         <v>5.23</v>
       </c>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4589,10 +4251,8 @@
       <c r="G170" s="2">
         <v>0</v>
       </c>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4614,10 +4274,8 @@
       <c r="G171" s="2">
         <v>6.03</v>
       </c>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-    </row>
-    <row r="172" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4633,10 +4291,8 @@
       <c r="G172" s="2">
         <v>0</v>
       </c>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-    </row>
-    <row r="173" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4652,10 +4308,8 @@
       <c r="G173" s="2">
         <v>0</v>
       </c>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-    </row>
-    <row r="174" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4677,10 +4331,8 @@
       <c r="G174" s="2">
         <v>14.17</v>
       </c>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4696,8 +4348,6 @@
       <c r="G175" s="2">
         <v>0</v>
       </c>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
